--- a/Unity/Assets/Config/Excel/Datas/Resource.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Resource.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\DX01DemoProj\Unity\LubanExcel\Datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24D9F1C-5BC9-4A1B-86AD-E67F4561115E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28000" windowHeight="15900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,59 +14,87 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>##var</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Url</t>
   </si>
   <si>
     <t>##type</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
   </si>
   <si>
     <t>##</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 资源路径</t>
   </si>
   <si>
     <t>测试说明</t>
   </si>
   <si>
-    <t>备注</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Url</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 资源路径</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Assets/Bundles/Scenes/Map1.unity</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>子弹区间 21000000-21999999</t>
+  </si>
+  <si>
+    <t>红色</t>
+  </si>
+  <si>
+    <t>Assets/Bundles/Prefabs/Bullet/Common/BulletRed.prefab</t>
+  </si>
+  <si>
+    <t>蓝色</t>
+  </si>
+  <si>
+    <t>Assets/Bundles/Prefabs/Bullet/Common/BulletBlue.prefab</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -81,48 +103,152 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -131,18 +257,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -150,44 +450,322 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="23" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="差" xfId="1" builtinId="27"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="2" builtinId="26"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -474,81 +1052,114 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.6" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="28.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="6.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="6.625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="21.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="36.2211538461538" style="3" customWidth="1"/>
+    <col min="4" max="4" width="53.3653846153846" style="3" customWidth="1"/>
+    <col min="5" max="5" width="7.875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="6.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="6.625" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="1" customFormat="1" ht="16.8" spans="1:4">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="16.8" spans="1:4">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5" t="s">
+      <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="16.8" spans="1:4">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6" t="s">
-        <v>5</v>
+    <row r="4" spans="1:4">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6">
+        <v>1001</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>9</v>
-      </c>
+    <row r="5" spans="1:4">
+      <c r="A5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="6"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1">
-        <v>1001</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
+    <row r="6" spans="2:4">
+      <c r="B6" s="3">
+        <v>21000001</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="3">
+        <v>21000002</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/Datas/Resource.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Resource.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="15900"/>
+    <workbookView windowHeight="18060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
   <si>
     <t>##var</t>
   </si>
@@ -52,19 +52,76 @@
     <t>#</t>
   </si>
   <si>
-    <t>子弹区间 21000000-21999999</t>
-  </si>
-  <si>
-    <t>红色</t>
+    <t>英雄相关区间 10000000 - 19999999 每个单位预留10000个资源位</t>
+  </si>
+  <si>
+    <t>刘备</t>
+  </si>
+  <si>
+    <t>Assets/Bundles/Unit/Unit.prefab</t>
+  </si>
+  <si>
+    <t>关羽</t>
+  </si>
+  <si>
+    <t>张飞</t>
+  </si>
+  <si>
+    <t>地块相关区间 20000000 - 29999999 每个单位预留10000个资源位</t>
+  </si>
+  <si>
+    <t>T型</t>
+  </si>
+  <si>
+    <t>W型</t>
+  </si>
+  <si>
+    <t>一型</t>
+  </si>
+  <si>
+    <t>建筑相关区间 30000000 - 39999999 每个单位预留10000个资源位</t>
+  </si>
+  <si>
+    <t>攻击塔</t>
+  </si>
+  <si>
+    <t>防御塔</t>
+  </si>
+  <si>
+    <t>肉盾塔</t>
+  </si>
+  <si>
+    <t>怪物相关区间 40000000 - 49999999 每个单位预留10000个资源位</t>
+  </si>
+  <si>
+    <t>血厚怪</t>
+  </si>
+  <si>
+    <t>防高怪</t>
+  </si>
+  <si>
+    <t>速度怪</t>
+  </si>
+  <si>
+    <t>通用资源区间 80000000-89999999 每个类型预留10000个资源位 例如10000-19999是子弹资源</t>
+  </si>
+  <si>
+    <t>红色子弹</t>
   </si>
   <si>
     <t>Assets/Bundles/Prefabs/Bullet/Common/BulletRed.prefab</t>
   </si>
   <si>
-    <t>蓝色</t>
+    <t>蓝色子弹</t>
   </si>
   <si>
     <t>Assets/Bundles/Prefabs/Bullet/Common/BulletBlue.prefab</t>
+  </si>
+  <si>
+    <t>其他资源区间90000000-99999999 每个类型预留10000个资源位</t>
+  </si>
+  <si>
+    <t>XXX</t>
   </si>
 </sst>
 </file>
@@ -77,7 +134,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,34 +143,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="10"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -228,6 +279,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -248,7 +313,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -257,6 +322,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -264,30 +365,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,76 +643,70 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -644,10 +715,10 @@
     <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -656,10 +727,10 @@
     <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -668,10 +739,10 @@
     <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -680,10 +751,10 @@
     <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -692,23 +763,42 @@
     <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="22" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="23" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1058,103 +1148,336 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.6" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="21.125" style="3" customWidth="1"/>
     <col min="2" max="2" width="12.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="36.2211538461538" style="3" customWidth="1"/>
-    <col min="4" max="4" width="53.3653846153846" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="80.6057692307692" style="4" customWidth="1"/>
     <col min="5" max="5" width="7.875" style="3" customWidth="1"/>
     <col min="6" max="6" width="6.5" style="3" customWidth="1"/>
     <col min="7" max="7" width="6.625" style="3" customWidth="1"/>
     <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="16.8" spans="1:4">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:4">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="16.8" spans="1:4">
+    <row r="2" s="2" customFormat="1" spans="1:4">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="16.8" spans="1:4">
-      <c r="A3" s="4" t="s">
+    <row r="3" s="1" customFormat="1" spans="1:4">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7">
         <v>1001</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" s="3">
-        <v>21000001</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="7"/>
+      <c r="B7" s="3">
+        <v>10010001</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D7" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
-      <c r="B7" s="3">
-        <v>21000002</v>
-      </c>
-      <c r="C7" s="3" t="s">
+    <row r="8" spans="1:4">
+      <c r="A8" s="7"/>
+      <c r="B8" s="3">
+        <v>10020001</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D8" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="7"/>
+      <c r="B9" s="3">
+        <v>10030001</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>16</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="11"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="7"/>
+      <c r="B12" s="3">
+        <v>20010001</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="7"/>
+      <c r="B13" s="3">
+        <v>20020001</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="7"/>
+      <c r="B14" s="3">
+        <v>20030001</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="11"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="7"/>
+      <c r="B17" s="3">
+        <v>30010001</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="7"/>
+      <c r="B18" s="3">
+        <v>30020001</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="7"/>
+      <c r="B19" s="3">
+        <v>30030001</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="11"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="7"/>
+      <c r="B22" s="3">
+        <v>40010001</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="7"/>
+      <c r="B23" s="3">
+        <v>40020001</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="7"/>
+      <c r="B24" s="3">
+        <v>40030001</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="11"/>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="3">
+        <v>80010001</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="3">
+        <v>80010002</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="11"/>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="3">
+        <v>90010001</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" s="3">
+        <v>90020001</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/Datas/Resource.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Resource.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
   <si>
     <t>##var</t>
   </si>
@@ -101,6 +101,15 @@
   </si>
   <si>
     <t>速度怪</t>
+  </si>
+  <si>
+    <t>掉落相关区间 50000000 - 59999999 每个单位预留10000个资源位</t>
+  </si>
+  <si>
+    <t>血瓶</t>
+  </si>
+  <si>
+    <t>水瓶</t>
   </si>
   <si>
     <t>通用资源区间 80000000-89999999 每个类型预留10000个资源位 例如10000-19999是子弹资源</t>
@@ -1148,10 +1157,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="B27" sqref="B27:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelCol="3"/>
@@ -1416,67 +1425,111 @@
         <v>14</v>
       </c>
     </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="8"/>
+    </row>
     <row r="26" spans="1:4">
       <c r="A26" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B26" s="10"/>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D26" s="11"/>
     </row>
-    <row r="27" spans="2:4">
+    <row r="27" spans="1:4">
+      <c r="A27" s="7"/>
       <c r="B27" s="3">
-        <v>80010001</v>
-      </c>
-      <c r="C27" s="3" t="s">
+        <v>50010001</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="7"/>
+      <c r="B28" s="3">
+        <v>50020001</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="B28" s="3">
-        <v>80010002</v>
-      </c>
-      <c r="C28" s="3" t="s">
+      <c r="D28" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="8"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30" s="11"/>
-    </row>
-    <row r="31" spans="2:4">
-      <c r="B31" s="3">
-        <v>90010001</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>14</v>
-      </c>
+      <c r="D31" s="11"/>
     </row>
     <row r="32" spans="2:4">
       <c r="B32" s="3">
+        <v>80010001</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="3">
+        <v>80010002</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="10"/>
+      <c r="C35" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="11"/>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="3">
+        <v>90010001</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="3">
         <v>90020001</v>
       </c>
-      <c r="C32" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" s="8" t="s">
+      <c r="C37" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="8" t="s">
         <v>14</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/Datas/Resource.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Resource.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
   <si>
     <t>##var</t>
   </si>
@@ -109,22 +109,28 @@
     <t>血瓶</t>
   </si>
   <si>
+    <t>Assets/Bundles/Prefabs/Common/Cube/CubeRed.prefab</t>
+  </si>
+  <si>
     <t>水瓶</t>
   </si>
   <si>
+    <t>Assets/Bundles/Prefabs/Common/Cube/CubeBlue.prefab</t>
+  </si>
+  <si>
     <t>通用资源区间 80000000-89999999 每个类型预留10000个资源位 例如10000-19999是子弹资源</t>
   </si>
   <si>
     <t>红色子弹</t>
   </si>
   <si>
-    <t>Assets/Bundles/Prefabs/Bullet/Common/BulletRed.prefab</t>
+    <t>Assets/Bundles/Prefabs/Common/Bullet/BulletRed.prefab</t>
   </si>
   <si>
     <t>蓝色子弹</t>
   </si>
   <si>
-    <t>Assets/Bundles/Prefabs/Bullet/Common/BulletBlue.prefab</t>
+    <t>Assets/Bundles/Prefabs/Common/Bullet/BulletBlue.prefab</t>
   </si>
   <si>
     <t>其他资源区间90000000-99999999 每个类型预留10000个资源位</t>
@@ -1160,7 +1166,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:B28"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelCol="3"/>
@@ -1449,7 +1455,7 @@
         <v>30</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1458,10 +1464,10 @@
         <v>50020001</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1475,7 +1481,7 @@
       </c>
       <c r="B31" s="10"/>
       <c r="C31" s="11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D31" s="11"/>
     </row>
@@ -1484,10 +1490,10 @@
         <v>80010001</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="2:4">
@@ -1495,10 +1501,10 @@
         <v>80010002</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1507,7 +1513,7 @@
       </c>
       <c r="B35" s="10"/>
       <c r="C35" s="11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D35" s="11"/>
     </row>
@@ -1516,7 +1522,7 @@
         <v>90010001</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>14</v>
@@ -1527,7 +1533,7 @@
         <v>90020001</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>14</v>

--- a/Unity/Assets/Config/Excel/Datas/Resource.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Resource.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18060"/>
+    <workbookView windowHeight="15900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
     <t>刘备</t>
   </si>
   <si>
-    <t>Assets/Bundles/Unit/Unit.prefab</t>
+    <t>Assets/Bundles/Unit/Skeleton1.prefab</t>
   </si>
   <si>
     <t>关羽</t>
@@ -1166,7 +1166,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelCol="3"/>

--- a/Unity/Assets/Config/Excel/Datas/Resource.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Resource.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
   <si>
     <t>##var</t>
   </si>
@@ -43,10 +43,16 @@
     <t xml:space="preserve"> 资源路径</t>
   </si>
   <si>
-    <t>测试说明</t>
+    <t>战斗地图1</t>
   </si>
   <si>
     <t>Assets/Bundles/Scenes/Map1.unity</t>
+  </si>
+  <si>
+    <t>战斗地图2</t>
+  </si>
+  <si>
+    <t>Assets/Bundles/Scenes/Map2.unity</t>
   </si>
   <si>
     <t>#</t>
@@ -1163,17 +1169,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="21.125" style="3" customWidth="1"/>
     <col min="2" max="2" width="12.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.8269230769231" style="3" customWidth="1"/>
     <col min="4" max="4" width="80.6057692307692" style="4" customWidth="1"/>
     <col min="5" max="5" width="7.875" style="3" customWidth="1"/>
     <col min="6" max="6" width="6.5" style="3" customWidth="1"/>
@@ -1233,235 +1239,235 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8"/>
+      <c r="B5" s="7">
+        <v>1002</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="11"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="7"/>
-      <c r="B7" s="3">
-        <v>10010001</v>
-      </c>
-      <c r="C7" s="7" t="s">
+      <c r="A7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="B7" s="10"/>
+      <c r="C7" s="10" t="s">
         <v>14</v>
       </c>
+      <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="7"/>
       <c r="B8" s="3">
-        <v>10020001</v>
+        <v>10010001</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="7"/>
       <c r="B9" s="3">
-        <v>10030001</v>
+        <v>10020001</v>
       </c>
       <c r="C9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
+      <c r="B10" s="3">
+        <v>10030001</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="11"/>
+      <c r="A11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="7"/>
-      <c r="B12" s="3">
-        <v>20010001</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>14</v>
-      </c>
+      <c r="A12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="7"/>
       <c r="B13" s="3">
-        <v>20020001</v>
+        <v>20010001</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="7"/>
       <c r="B14" s="3">
-        <v>20030001</v>
+        <v>20020001</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="8"/>
+      <c r="B15" s="3">
+        <v>20030001</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="11"/>
+      <c r="A16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="7"/>
-      <c r="B17" s="3">
-        <v>30010001</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>14</v>
-      </c>
+      <c r="A17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="11"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="7"/>
       <c r="B18" s="3">
-        <v>30020001</v>
+        <v>30010001</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="7"/>
       <c r="B19" s="3">
+        <v>30020001</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="7"/>
+      <c r="B20" s="3">
         <v>30030001</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="11"/>
+      <c r="C20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="7"/>
-      <c r="B22" s="3">
-        <v>40010001</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>14</v>
-      </c>
+      <c r="A22" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="11"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="7"/>
       <c r="B23" s="3">
-        <v>40020001</v>
+        <v>40010001</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="7"/>
       <c r="B24" s="3">
-        <v>40030001</v>
+        <v>40020001</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="8"/>
+      <c r="B25" s="3">
+        <v>40030001</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="11"/>
+      <c r="A26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="7"/>
-      <c r="B27" s="3">
-        <v>50010001</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="8" t="s">
+      <c r="A27" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10" t="s">
         <v>31</v>
       </c>
+      <c r="D27" s="11"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="7"/>
       <c r="B28" s="3">
-        <v>50020001</v>
+        <v>50010001</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>32</v>
@@ -1472,33 +1478,34 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="8"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="11" t="s">
+      <c r="B29" s="3">
+        <v>50020001</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="11"/>
-    </row>
-    <row r="32" spans="2:4">
-      <c r="B32" s="3">
-        <v>80010001</v>
-      </c>
-      <c r="C32" s="3" t="s">
+      <c r="D29" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="4" t="s">
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="8"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="11" t="s">
         <v>36</v>
       </c>
+      <c r="D32" s="11"/>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="3">
-        <v>80010002</v>
+        <v>80010001</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>37</v>
@@ -1507,36 +1514,47 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="11" t="s">
+    <row r="34" spans="2:4">
+      <c r="B34" s="3">
+        <v>80010002</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="11"/>
-    </row>
-    <row r="36" spans="2:4">
-      <c r="B36" s="3">
-        <v>90010001</v>
-      </c>
-      <c r="C36" s="7" t="s">
+      <c r="D34" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D36" s="8" t="s">
-        <v>14</v>
-      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" s="11"/>
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="3">
+        <v>90010001</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" s="3">
         <v>90020001</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>14</v>
+      <c r="C38" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/Datas/Resource.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Resource.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
   <si>
     <t>##var</t>
   </si>
@@ -76,13 +76,22 @@
     <t>地块相关区间 20000000 - 29999999 每个单位预留10000个资源位</t>
   </si>
   <si>
-    <t>T型</t>
-  </si>
-  <si>
-    <t>W型</t>
-  </si>
-  <si>
-    <t>一型</t>
+    <t>横一字型</t>
+  </si>
+  <si>
+    <t>Assets/Bundles/Prefabs/Block/Block4hI.prefab</t>
+  </si>
+  <si>
+    <t>竖一字型</t>
+  </si>
+  <si>
+    <t>Assets/Bundles/Prefabs/Block/Block4vI.prefab</t>
+  </si>
+  <si>
+    <t>T字形</t>
+  </si>
+  <si>
+    <t>Assets/Bundles/Prefabs/Block/Block5T.prefab</t>
   </si>
   <si>
     <t>建筑相关区间 30000000 - 39999999 每个单位预留10000个资源位</t>
@@ -794,7 +803,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="22" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="23" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -820,6 +829,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1172,7 +1184,7 @@
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelCol="3"/>
@@ -1321,11 +1333,11 @@
       <c r="B13" s="3">
         <v>20010001</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="12" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1333,11 +1345,11 @@
       <c r="B14" s="3">
         <v>20020001</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>21</v>
+      <c r="C14" s="12" t="s">
+        <v>22</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1345,11 +1357,11 @@
       <c r="B15" s="3">
         <v>20030001</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>22</v>
+      <c r="C15" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1363,7 +1375,7 @@
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D17" s="11"/>
     </row>
@@ -1373,7 +1385,7 @@
         <v>30010001</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>16</v>
@@ -1385,7 +1397,7 @@
         <v>30020001</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>16</v>
@@ -1397,7 +1409,7 @@
         <v>30030001</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>16</v>
@@ -1409,7 +1421,7 @@
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D22" s="11"/>
     </row>
@@ -1419,7 +1431,7 @@
         <v>40010001</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>16</v>
@@ -1431,7 +1443,7 @@
         <v>40020001</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>16</v>
@@ -1443,7 +1455,7 @@
         <v>40030001</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>16</v>
@@ -1460,7 +1472,7 @@
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D27" s="11"/>
     </row>
@@ -1470,10 +1482,10 @@
         <v>50010001</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1482,10 +1494,10 @@
         <v>50020001</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1499,7 +1511,7 @@
       </c>
       <c r="B32" s="10"/>
       <c r="C32" s="11" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D32" s="11"/>
     </row>
@@ -1508,10 +1520,10 @@
         <v>80010001</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="2:4">
@@ -1519,10 +1531,10 @@
         <v>80010002</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1531,7 +1543,7 @@
       </c>
       <c r="B36" s="10"/>
       <c r="C36" s="11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D36" s="11"/>
     </row>
@@ -1540,7 +1552,7 @@
         <v>90010001</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>16</v>
@@ -1551,7 +1563,7 @@
         <v>90020001</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>16</v>

--- a/Unity/Assets/Config/Excel/Datas/Resource.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Resource.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="50">
   <si>
     <t>##var</t>
   </si>
@@ -95,6 +95,18 @@
   </si>
   <si>
     <t>建筑相关区间 30000000 - 39999999 每个单位预留10000个资源位</t>
+  </si>
+  <si>
+    <t>塔防大本营</t>
+  </si>
+  <si>
+    <t>Assets/Bundles/Prefabs/Building/CampTower.prefab</t>
+  </si>
+  <si>
+    <t>兵防大本营</t>
+  </si>
+  <si>
+    <t>Assets/Bundles/Prefabs/Building/CampSoldier.prefab</t>
   </si>
   <si>
     <t>攻击塔</t>
@@ -1181,10 +1193,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelCol="3"/>
@@ -1382,80 +1394,80 @@
     <row r="18" spans="1:4">
       <c r="A18" s="7"/>
       <c r="B18" s="3">
-        <v>30010001</v>
+        <v>30001001</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="7"/>
       <c r="B19" s="3">
-        <v>30020001</v>
+        <v>30005001</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="7"/>
       <c r="B20" s="3">
-        <v>30030001</v>
+        <v>30010001</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>16</v>
       </c>
     </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="7"/>
+      <c r="B21" s="3">
+        <v>30020001</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="7"/>
+      <c r="B22" s="3">
+        <v>30030001</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="11"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="7"/>
-      <c r="B23" s="3">
-        <v>40010001</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="7"/>
-      <c r="B24" s="3">
-        <v>40020001</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>16</v>
-      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="11"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="7"/>
       <c r="B25" s="3">
-        <v>40030001</v>
+        <v>40010001</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>16</v>
@@ -1463,109 +1475,133 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="8"/>
+      <c r="B26" s="3">
+        <v>40020001</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" s="11"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="3">
+        <v>40030001</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="7"/>
-      <c r="B28" s="3">
-        <v>50010001</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>36</v>
-      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="7"/>
-      <c r="B29" s="3">
-        <v>50020001</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="8" t="s">
+      <c r="A29" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10" t="s">
         <v>38</v>
       </c>
+      <c r="D29" s="11"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="8"/>
+      <c r="B30" s="3">
+        <v>50010001</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="7"/>
+      <c r="B31" s="3">
+        <v>50020001</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="8"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D32" s="11"/>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="3">
+      <c r="B34" s="10"/>
+      <c r="C34" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="11"/>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="3">
         <v>80010001</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34" s="3">
+      <c r="C35" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="3">
         <v>80010002</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="9" t="s">
+      <c r="C36" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D36" s="11"/>
-    </row>
-    <row r="37" spans="2:4">
-      <c r="B37" s="3">
+      <c r="B38" s="10"/>
+      <c r="C38" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="11"/>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" s="3">
         <v>90010001</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D37" s="8" t="s">
+      <c r="C39" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="2:4">
-      <c r="B38" s="3">
+    <row r="40" spans="2:4">
+      <c r="B40" s="3">
         <v>90020001</v>
       </c>
-      <c r="C38" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D38" s="8" t="s">
+      <c r="C40" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" s="8" t="s">
         <v>16</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/Datas/Resource.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Resource.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15900"/>
+    <workbookView windowHeight="15820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
   <si>
     <t>##var</t>
   </si>
@@ -112,10 +112,19 @@
     <t>攻击塔</t>
   </si>
   <si>
+    <t>Assets/Bundles/Prefabs/Building/TowerAtk.prefab</t>
+  </si>
+  <si>
     <t>防御塔</t>
   </si>
   <si>
+    <t>Assets/Bundles/Prefabs/Building/TowerDef.prefab</t>
+  </si>
+  <si>
     <t>肉盾塔</t>
+  </si>
+  <si>
+    <t>Assets/Bundles/Prefabs/Building/TowerBlood.prefab</t>
   </si>
   <si>
     <t>怪物相关区间 40000000 - 49999999 每个单位预留10000个资源位</t>
@@ -1196,7 +1205,7 @@
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelCol="3"/>
@@ -1424,7 +1433,7 @@
         <v>31</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1433,10 +1442,10 @@
         <v>30020001</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1445,10 +1454,10 @@
         <v>30030001</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1457,7 +1466,7 @@
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="10" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D24" s="11"/>
     </row>
@@ -1467,7 +1476,7 @@
         <v>40010001</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>16</v>
@@ -1479,7 +1488,7 @@
         <v>40020001</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>16</v>
@@ -1491,7 +1500,7 @@
         <v>40030001</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>16</v>
@@ -1508,7 +1517,7 @@
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="10" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D29" s="11"/>
     </row>
@@ -1518,10 +1527,10 @@
         <v>50010001</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1530,10 +1539,10 @@
         <v>50020001</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1547,7 +1556,7 @@
       </c>
       <c r="B34" s="10"/>
       <c r="C34" s="11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D34" s="11"/>
     </row>
@@ -1556,10 +1565,10 @@
         <v>80010001</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="2:4">
@@ -1567,10 +1576,10 @@
         <v>80010002</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1579,7 +1588,7 @@
       </c>
       <c r="B38" s="10"/>
       <c r="C38" s="11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D38" s="11"/>
     </row>
@@ -1588,7 +1597,7 @@
         <v>90010001</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>16</v>
@@ -1599,7 +1608,7 @@
         <v>90020001</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>16</v>

--- a/Unity/Assets/Config/Excel/Datas/Resource.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Resource.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
   <si>
     <t>##var</t>
   </si>
@@ -152,6 +152,21 @@
   </si>
   <si>
     <t>Assets/Bundles/Prefabs/Common/Cube/CubeBlue.prefab</t>
+  </si>
+  <si>
+    <t>特效相关区间 70000000 - 79999999</t>
+  </si>
+  <si>
+    <t>加血特效</t>
+  </si>
+  <si>
+    <t>Assets/Bundles/Prefabs/Common/Effects/FxPlusHp.prefab</t>
+  </si>
+  <si>
+    <t>加蓝特效</t>
+  </si>
+  <si>
+    <t>Assets/Bundles/Prefabs/Common/Effects/FxPlusMp.prefab</t>
   </si>
   <si>
     <t>通用资源区间 80000000-89999999 每个类型预留10000个资源位 例如10000-19999是子弹资源</t>
@@ -1202,10 +1217,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelCol="3"/>
@@ -1550,67 +1565,101 @@
       <c r="C32" s="7"/>
       <c r="D32" s="8"/>
     </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="11"/>
+    </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="7"/>
+      <c r="B34" s="3">
+        <v>70000001</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="7"/>
+      <c r="B35" s="3">
+        <v>70000002</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D34" s="11"/>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35" s="3">
+      <c r="B37" s="10"/>
+      <c r="C37" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" s="11"/>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" s="3">
         <v>80010001</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4">
-      <c r="B36" s="3">
-        <v>80010002</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D38" s="11"/>
+      <c r="C38" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="39" spans="2:4">
       <c r="B39" s="3">
+        <v>80010002</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="10"/>
+      <c r="C41" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" s="11"/>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42" s="3">
         <v>90010001</v>
       </c>
-      <c r="C39" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D39" s="8" t="s">
+      <c r="C42" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D42" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="2:4">
-      <c r="B40" s="3">
+    <row r="43" spans="2:4">
+      <c r="B43" s="3">
         <v>90020001</v>
       </c>
-      <c r="C40" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D40" s="8" t="s">
+      <c r="C43" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" s="8" t="s">
         <v>16</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/Datas/Resource.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Resource.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="63">
   <si>
     <t>##var</t>
   </si>
@@ -184,10 +184,25 @@
     <t>Assets/Bundles/Prefabs/Common/Bullet/BulletBlue.prefab</t>
   </si>
   <si>
-    <t>其他资源区间90000000-99999999 每个类型预留10000个资源位</t>
-  </si>
-  <si>
-    <t>XXX</t>
+    <t>其他资源区间90000000-99999999</t>
+  </si>
+  <si>
+    <t>选中特效</t>
+  </si>
+  <si>
+    <t>Assets/Bundles/Prefabs/Common/Effects/FxMouseSelected.prefab</t>
+  </si>
+  <si>
+    <t>悬停特效</t>
+  </si>
+  <si>
+    <t>Assets/Bundles/Prefabs/Common/Effects/FxMouseHover.prefab</t>
+  </si>
+  <si>
+    <t>使用物品目标</t>
+  </si>
+  <si>
+    <t>Assets/Bundles/Prefabs/Common/Effects/FxMouseUesTarget.prefab</t>
   </si>
 </sst>
 </file>
@@ -1217,10 +1232,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelCol="3"/>
@@ -1643,24 +1658,35 @@
     </row>
     <row r="42" spans="2:4">
       <c r="B42" s="3">
-        <v>90010001</v>
+        <v>90000001</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>57</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="2:4">
       <c r="B43" s="3">
-        <v>90020001</v>
+        <v>90000002</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>16</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44" s="3">
+        <v>90000003</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/Datas/Resource.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Resource.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="69">
   <si>
     <t>##var</t>
   </si>
@@ -172,16 +172,34 @@
     <t>通用资源区间 80000000-89999999 每个类型预留10000个资源位 例如10000-19999是子弹资源</t>
   </si>
   <si>
-    <t>红色子弹</t>
-  </si>
-  <si>
-    <t>Assets/Bundles/Prefabs/Common/Bullet/BulletRed.prefab</t>
-  </si>
-  <si>
-    <t>蓝色子弹</t>
-  </si>
-  <si>
-    <t>Assets/Bundles/Prefabs/Common/Bullet/BulletBlue.prefab</t>
+    <t>Assets/Bundles/Prefabs/Bullet/BulletRed.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Bundles/Prefabs/Bullet/BulletBlue.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Bundles/Prefabs/Bullet/BulletCircle.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Bundles/Prefabs/Bullet/BulletFlower4.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Bundles/Prefabs/Bullet/BulletFlower5.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Bundles/Prefabs/Bullet/BulletHexagon.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Bundles/Prefabs/Bullet/BulletSnowflake.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Bundles/Prefabs/Bullet/BulletSquare.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Bundles/Prefabs/Bullet/BulletStar.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Bundles/Prefabs/Bullet/BulletTriangle.prefab</t>
   </si>
   <si>
     <t>其他资源区间90000000-99999999</t>
@@ -1232,10 +1250,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelCol="3"/>
@@ -1628,65 +1646,123 @@
       <c r="B38" s="3">
         <v>80010001</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="D38" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="39" spans="2:4">
       <c r="B39" s="3">
         <v>80010002</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="D39" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" s="3">
+        <v>80020001</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D39" s="4" t="s">
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41" s="3">
+        <v>80020002</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D41" s="11"/>
     </row>
     <row r="42" spans="2:4">
       <c r="B42" s="3">
-        <v>90000001</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>58</v>
+        <v>80020003</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="2:4">
       <c r="B43" s="3">
-        <v>90000002</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>60</v>
+        <v>80020004</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="2:4">
       <c r="B44" s="3">
+        <v>80020005</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45" s="3">
+        <v>80020006</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46" s="3">
+        <v>80020007</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="B47" s="3">
+        <v>80020008</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" s="10"/>
+      <c r="C50" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D50" s="11"/>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="B51" s="3">
+        <v>90000001</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="B52" s="3">
+        <v>90000002</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="B53" s="3">
         <v>90000003</v>
       </c>
-      <c r="C44" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>62</v>
+      <c r="C53" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/Datas/Resource.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Resource.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15820"/>
+    <workbookView windowHeight="18200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="71">
   <si>
     <t>##var</t>
   </si>
@@ -109,22 +109,28 @@
     <t>Assets/Bundles/Prefabs/Building/CampSoldier.prefab</t>
   </si>
   <si>
-    <t>攻击塔</t>
-  </si>
-  <si>
-    <t>Assets/Bundles/Prefabs/Building/TowerAtk.prefab</t>
-  </si>
-  <si>
-    <t>防御塔</t>
-  </si>
-  <si>
-    <t>Assets/Bundles/Prefabs/Building/TowerDef.prefab</t>
-  </si>
-  <si>
-    <t>肉盾塔</t>
-  </si>
-  <si>
-    <t>Assets/Bundles/Prefabs/Building/TowerBlood.prefab</t>
+    <t>Assets/Bundles/Prefabs/Building/TowerCircle.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Bundles/Prefabs/Building/TowerFlower4.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Bundles/Prefabs/Building/TowerFlower5.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Bundles/Prefabs/Building/TowerHexagon.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Bundles/Prefabs/Building/TowerSnowflake.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Bundles/Prefabs/Building/TowerSquare.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Bundles/Prefabs/Building/TowerStar.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Bundles/Prefabs/Building/TowerTriangle.prefab</t>
   </si>
   <si>
     <t>怪物相关区间 40000000 - 49999999 每个单位预留10000个资源位</t>
@@ -1250,10 +1256,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelCol="3"/>
@@ -1477,11 +1483,9 @@
       <c r="B20" s="3">
         <v>30010001</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="7"/>
+      <c r="D20" s="8" t="s">
         <v>31</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1489,11 +1493,9 @@
       <c r="B21" s="3">
         <v>30020001</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>33</v>
-      </c>
+      <c r="C21" s="7"/>
       <c r="D21" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1501,63 +1503,60 @@
       <c r="B22" s="3">
         <v>30030001</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="7"/>
+      <c r="D22" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="7"/>
+      <c r="B23" s="3">
+        <v>30040001</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="7"/>
+      <c r="B24" s="3">
+        <v>30050001</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="11"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="7"/>
       <c r="B25" s="3">
-        <v>40010001</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>38</v>
-      </c>
+        <v>30060001</v>
+      </c>
+      <c r="C25" s="7"/>
       <c r="D25" s="8" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="7"/>
       <c r="B26" s="3">
-        <v>40020001</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>39</v>
-      </c>
+        <v>30070001</v>
+      </c>
+      <c r="C26" s="7"/>
       <c r="D26" s="8" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="7"/>
       <c r="B27" s="3">
-        <v>40030001</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>40</v>
-      </c>
+        <v>30080001</v>
+      </c>
+      <c r="C27" s="7"/>
       <c r="D27" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="8"/>
+        <v>38</v>
+      </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="9" t="s">
@@ -1565,204 +1564,255 @@
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D29" s="11"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="7"/>
       <c r="B30" s="3">
-        <v>50010001</v>
+        <v>40010001</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="7"/>
       <c r="B31" s="3">
-        <v>50020001</v>
+        <v>40020001</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="8"/>
+      <c r="B32" s="3">
+        <v>40030001</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="8"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D33" s="11"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="7"/>
-      <c r="B34" s="3">
-        <v>70000001</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>48</v>
-      </c>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="11"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="7"/>
       <c r="B35" s="3">
+        <v>50010001</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="7"/>
+      <c r="B36" s="3">
+        <v>50020001</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="8"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="11"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="7"/>
+      <c r="B39" s="3">
+        <v>70000001</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="7"/>
+      <c r="B40" s="3">
         <v>70000002</v>
       </c>
-      <c r="C35" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="9" t="s">
+      <c r="C40" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D37" s="11"/>
-    </row>
-    <row r="38" spans="2:4">
-      <c r="B38" s="3">
-        <v>80010001</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4">
-      <c r="B39" s="3">
-        <v>80010002</v>
-      </c>
-      <c r="D39" s="4" t="s">
+      <c r="B42" s="10"/>
+      <c r="C42" s="11" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="40" spans="2:4">
-      <c r="B40" s="3">
-        <v>80020001</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4">
-      <c r="B41" s="3">
-        <v>80020002</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4">
-      <c r="B42" s="3">
-        <v>80020003</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>56</v>
-      </c>
+      <c r="D42" s="11"/>
     </row>
     <row r="43" spans="2:4">
       <c r="B43" s="3">
-        <v>80020004</v>
+        <v>80010001</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="2:4">
       <c r="B44" s="3">
-        <v>80020005</v>
+        <v>80010002</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="2:4">
       <c r="B45" s="3">
-        <v>80020006</v>
+        <v>80020001</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="2:4">
       <c r="B46" s="3">
-        <v>80020007</v>
+        <v>80020002</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="2:4">
       <c r="B47" s="3">
-        <v>80020008</v>
+        <v>80020003</v>
       </c>
       <c r="D47" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4">
+      <c r="B48" s="3">
+        <v>80020004</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="B49" s="3">
+        <v>80020005</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50" s="3">
+        <v>80020006</v>
+      </c>
+      <c r="D50" s="4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B50" s="10"/>
-      <c r="C50" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D50" s="11"/>
     </row>
     <row r="51" spans="2:4">
       <c r="B51" s="3">
-        <v>90000001</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>64</v>
+        <v>80020007</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="2:4">
       <c r="B52" s="3">
+        <v>80020008</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" s="10"/>
+      <c r="C55" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D55" s="11"/>
+    </row>
+    <row r="56" spans="2:4">
+      <c r="B56" s="3">
+        <v>90000001</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4">
+      <c r="B57" s="3">
         <v>90000002</v>
       </c>
-      <c r="C52" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4">
-      <c r="B53" s="3">
+      <c r="C57" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4">
+      <c r="B58" s="3">
         <v>90000003</v>
       </c>
-      <c r="C53" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>68</v>
+      <c r="C58" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/Datas/Resource.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Resource.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18200"/>
+    <workbookView windowHeight="15820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="77">
   <si>
     <t>##var</t>
   </si>
@@ -173,6 +173,24 @@
   </si>
   <si>
     <t>Assets/Bundles/Prefabs/Common/Effects/FxPlusMp.prefab</t>
+  </si>
+  <si>
+    <t>范围指示器圆形</t>
+  </si>
+  <si>
+    <t>Assets/Bundles/Prefabs/Indicator/IndicatorCircle.prefab</t>
+  </si>
+  <si>
+    <t>范围指示器矩形</t>
+  </si>
+  <si>
+    <t>Assets/Bundles/Prefabs/Indicator/IndicatorSquare.prefab</t>
+  </si>
+  <si>
+    <t>范围指示器十字</t>
+  </si>
+  <si>
+    <t>Assets/Bundles/Prefabs/Indicator/IndicatorCross.prefab</t>
   </si>
   <si>
     <t>通用资源区间 80000000-89999999 每个类型预留10000个资源位 例如10000-19999是子弹资源</t>
@@ -1256,10 +1274,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelCol="3"/>
@@ -1682,137 +1700,173 @@
         <v>52</v>
       </c>
     </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="7"/>
+      <c r="B41" s="3">
+        <v>70010001</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="7"/>
+      <c r="B42" s="3">
+        <v>70010002</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="7"/>
+      <c r="B43" s="3">
+        <v>70010003</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D42" s="11"/>
-    </row>
-    <row r="43" spans="2:4">
-      <c r="B43" s="3">
-        <v>80010001</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4">
-      <c r="B44" s="3">
-        <v>80010002</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4">
-      <c r="B45" s="3">
-        <v>80020001</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>56</v>
-      </c>
+      <c r="B45" s="10"/>
+      <c r="C45" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45" s="11"/>
     </row>
     <row r="46" spans="2:4">
       <c r="B46" s="3">
-        <v>80020002</v>
+        <v>80010001</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="2:4">
       <c r="B47" s="3">
-        <v>80020003</v>
+        <v>80010002</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="2:4">
       <c r="B48" s="3">
-        <v>80020004</v>
+        <v>80020001</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="2:4">
       <c r="B49" s="3">
-        <v>80020005</v>
+        <v>80020002</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="2:4">
       <c r="B50" s="3">
-        <v>80020006</v>
+        <v>80020003</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="2:4">
       <c r="B51" s="3">
-        <v>80020007</v>
+        <v>80020004</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="2:4">
       <c r="B52" s="3">
+        <v>80020005</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="B53" s="3">
+        <v>80020006</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4">
+      <c r="B54" s="3">
+        <v>80020007</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4">
+      <c r="B55" s="3">
         <v>80020008</v>
       </c>
-      <c r="D52" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="9" t="s">
+      <c r="D55" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B55" s="10"/>
-      <c r="C55" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D55" s="11"/>
-    </row>
-    <row r="56" spans="2:4">
-      <c r="B56" s="3">
+      <c r="B58" s="10"/>
+      <c r="C58" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D58" s="11"/>
+    </row>
+    <row r="59" spans="2:4">
+      <c r="B59" s="3">
         <v>90000001</v>
       </c>
-      <c r="C56" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4">
-      <c r="B57" s="3">
+      <c r="C59" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4">
+      <c r="B60" s="3">
         <v>90000002</v>
       </c>
-      <c r="C57" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4">
-      <c r="B58" s="3">
+      <c r="C60" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4">
+      <c r="B61" s="3">
         <v>90000003</v>
       </c>
-      <c r="C58" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>70</v>
+      <c r="C61" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
